--- a/zazic-scale-up/forms/contact/person-create.xlsx
+++ b/zazic-scale-up/forms/contact/person-create.xlsx
@@ -11,24 +11,24 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjcR0G53Ilj4erAvpa/HKyauFlupA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgHL/OA7TrlKhwp09YNsUgCAzpSkA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>list_name</t>
   </si>
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -41,61 +41,127 @@
     <t>english</t>
   </si>
   <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>shona</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>Shona</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>seke_north</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>English</t>
+    <t>Chitungwiza-Seke North clinic</t>
+  </si>
+  <si>
+    <t>seke_south</t>
   </si>
   <si>
     <t>style</t>
   </si>
   <si>
+    <t>Chitungwiza-Seke South clinic</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
-    <t>shona</t>
-  </si>
-  <si>
-    <t>Shona</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>hint</t>
-  </si>
-  <si>
-    <t>facilities</t>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>city_med</t>
+  </si>
+  <si>
+    <t>City Med hospital</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>zengeza</t>
+  </si>
+  <si>
+    <t>Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>chitungwiza_central</t>
+  </si>
+  <si>
+    <t>Chitungwiza Central Hospital</t>
+  </si>
+  <si>
+    <t>chegutu_norton</t>
+  </si>
+  <si>
+    <t>Chegutu- Norton hospital</t>
+  </si>
+  <si>
+    <t>chegutu_district</t>
+  </si>
+  <si>
+    <t>Chegutu District Hospital</t>
   </si>
   <si>
     <t>Enroll New Person</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
-    <t>calculation</t>
+    <t>monera</t>
+  </si>
+  <si>
+    <t>Monera clinic(Norton Outreach)</t>
+  </si>
+  <si>
+    <t>marondera</t>
+  </si>
+  <si>
+    <t>Marondera District Hospital</t>
+  </si>
+  <si>
+    <t>mahusekwa</t>
+  </si>
+  <si>
+    <t>Mahusekwa Hospital</t>
   </si>
   <si>
     <t>contact:person:create</t>
   </si>
   <si>
-    <t>seke_north</t>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>pages</t>
@@ -104,72 +170,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>Chitungwiza-Seke North clinic</t>
-  </si>
-  <si>
-    <t>seke_south</t>
-  </si>
-  <si>
-    <t>Chitungwiza-Seke South clinic</t>
-  </si>
-  <si>
-    <t>city_med</t>
-  </si>
-  <si>
-    <t>City Med hospital</t>
-  </si>
-  <si>
-    <t>zengeza</t>
-  </si>
-  <si>
-    <t>Zengeza Clinic</t>
-  </si>
-  <si>
-    <t>chitungwiza_central</t>
-  </si>
-  <si>
-    <t>Chitungwiza Central Hospital</t>
-  </si>
-  <si>
-    <t>chegutu_norton</t>
-  </si>
-  <si>
-    <t>Chegutu- Norton hospital</t>
-  </si>
-  <si>
-    <t>chegutu_district</t>
-  </si>
-  <si>
-    <t>Chegutu District Hospital</t>
-  </si>
-  <si>
-    <t>monera</t>
-  </si>
-  <si>
-    <t>Monera clinic(Norton Outreach)</t>
-  </si>
-  <si>
-    <t>marondera</t>
-  </si>
-  <si>
-    <t>Marondera District Hospital</t>
-  </si>
-  <si>
-    <t>mahusekwa</t>
-  </si>
-  <si>
-    <t>Mahusekwa Hospital</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -203,63 +203,6 @@
     <t>Please type in name characters e.g letters and space.</t>
   </si>
   <si>
-    <t>select_one facilities</t>
-  </si>
-  <si>
-    <t>enrollment_facility</t>
-  </si>
-  <si>
-    <t>VMMC Enrollment Facility</t>
-  </si>
-  <si>
-    <t>enrollment_location</t>
-  </si>
-  <si>
-    <t>Specify Enrollment Location</t>
-  </si>
-  <si>
-    <t>vmmc_no</t>
-  </si>
-  <si>
-    <t>VMMC Client Number</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{5,9}$')</t>
-  </si>
-  <si>
-    <t>Must be 5 – 9 numeric digits</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>age_years</t>
-  </si>
-  <si>
-    <t>VMMC Client Age in Years</t>
-  </si>
-  <si>
-    <t>(.) &gt;= 18 and (.) &lt;= 75</t>
-  </si>
-  <si>
-    <t>Only 18 - 75 yrs old men can enroll.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>enrollment_date</t>
-  </si>
-  <si>
-    <t>Enrollment Date</t>
-  </si>
-  <si>
-    <t>decimal-date-time(.) = floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Only today's date is allowed</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -287,16 +230,58 @@
     <t>What is this client’s language of preference for the texts?</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>enrollment_nurse</t>
-  </si>
-  <si>
-    <t>Name of enrollment nurse</t>
+    <t>enrollment_report</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>enroll</t>
+  </si>
+  <si>
+    <t>${enroll}</t>
   </si>
   <si>
     <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>../person/name</t>
+  </si>
+  <si>
+    <t>${patient_name}'s enrollment</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>${person}</t>
+  </si>
+  <si>
+    <t>/data/person</t>
+  </si>
+  <si>
+    <t>Patient Phone</t>
+  </si>
+  <si>
+    <t>../../person/phone</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -306,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -318,19 +303,15 @@
       <name val="Cambria"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Proxima Nova"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Cambria"/>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
@@ -342,16 +323,45 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -368,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -384,28 +394,46 @@
         <color rgb="FFD0CECE"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -413,29 +441,62 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,564 +734,762 @@
     <col customWidth="1" min="9" max="9" width="36.11"/>
     <col customWidth="1" min="10" max="10" width="59.0"/>
     <col customWidth="1" min="11" max="16" width="13.44"/>
-    <col customWidth="1" min="17" max="24" width="10.0"/>
+    <col customWidth="1" min="17" max="26" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="J6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="9">
+      <c r="A9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="13" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="A11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="13" t="s">
+      <c r="B13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="A15" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
     <row r="23" ht="12.75" customHeight="1"/>
     <row r="24" ht="12.75" customHeight="1"/>
@@ -1422,10 +1681,10 @@
     <row r="210" ht="12.75" customHeight="1"/>
     <row r="211" ht="12.75" customHeight="1"/>
     <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
     <row r="217" ht="15.75" customHeight="1"/>
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
@@ -2197,10 +2456,6 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
@@ -2253,7 +2508,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2261,120 +2516,120 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>46</v>
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -3376,58 +3631,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10">
         <v>43024.0</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
